--- a/consulta_sesion.xlsx
+++ b/consulta_sesion.xlsx
@@ -508,27 +508,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>050188</t>
+          <t>035148</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9050177</t>
+          <t>9014224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23268523700017</t>
+          <t>001AE87EB516</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LECTOR DE CODIGO DE BARRAS</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>LAURA MILENA PEÑARANDA CAMARGO</t>
+          <t>JORGE ANDRES MELO MAYORGA</t>
         </is>
       </c>
     </row>

--- a/consulta_sesion.xlsx
+++ b/consulta_sesion.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,6 +542,90 @@
         </is>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>JORGE ANDRES MELO MAYORGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>035148</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9014224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>001AE87EB516</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TELEFONO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Piso 3 - Oficina Sala Múltiple Modulo 9</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>JORGE ANDRES MELO MAYORGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>050188</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9050177</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23268523700017</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LECTOR DE CODIGO DE BARRAS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Piso 3 - Oficina Sala Múltiple Modulo 9</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>JORGE ANDRES MELO MAYORGA</t>
         </is>
